--- a/hardware/Pic-o_Link/PickAndPlace_PCB_2022-03-13.xlsx
+++ b/hardware/Pic-o_Link/PickAndPlace_PCB_2022-03-13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>Designator</t>
   </si>
@@ -58,13 +58,13 @@
     <t>R0603_1</t>
   </si>
   <si>
-    <t>555mil</t>
-  </si>
-  <si>
-    <t>-505mil</t>
-  </si>
-  <si>
-    <t>584.7mil</t>
+    <t>14.097mm</t>
+  </si>
+  <si>
+    <t>-12.827mm</t>
+  </si>
+  <si>
+    <t>14.851mm</t>
   </si>
   <si>
     <t>T</t>
@@ -76,13 +76,13 @@
     <t>R3</t>
   </si>
   <si>
-    <t>-565mil</t>
+    <t>-14.351mm</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>-625mil</t>
+    <t>-15.875mm</t>
   </si>
   <si>
     <t>U1</t>
@@ -94,16 +94,16 @@
     <t>QFN-48_L7.0-W7.0-P0.50-BL-EP5.1</t>
   </si>
   <si>
-    <t>320mil</t>
-  </si>
-  <si>
-    <t>-650mil</t>
-  </si>
-  <si>
-    <t>185.1mil</t>
-  </si>
-  <si>
-    <t>-541.7mil</t>
+    <t>8.128mm</t>
+  </si>
+  <si>
+    <t>-16.51mm</t>
+  </si>
+  <si>
+    <t>4.702mm</t>
+  </si>
+  <si>
+    <t>-13.759mm</t>
   </si>
   <si>
     <t>U3</t>
@@ -115,28 +115,28 @@
     <t>SW-SMD_L4.0-W3.0-LS4.8-1</t>
   </si>
   <si>
-    <t>610mil</t>
-  </si>
-  <si>
-    <t>-960mil</t>
-  </si>
-  <si>
-    <t>-1041.7mil</t>
+    <t>15.494mm</t>
+  </si>
+  <si>
+    <t>-24.384mm</t>
+  </si>
+  <si>
+    <t>-26.459mm</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>80mil</t>
+    <t>2.032mm</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>-780mil</t>
-  </si>
-  <si>
-    <t>-809.7mil</t>
+    <t>-19.812mm</t>
+  </si>
+  <si>
+    <t>-20.566mm</t>
   </si>
   <si>
     <t>C1</t>
@@ -148,13 +148,13 @@
     <t>C0603_1</t>
   </si>
   <si>
-    <t>185mil</t>
-  </si>
-  <si>
-    <t>-955mil</t>
-  </si>
-  <si>
-    <t>-982.6mil</t>
+    <t>4.699mm</t>
+  </si>
+  <si>
+    <t>-24.257mm</t>
+  </si>
+  <si>
+    <t>-24.958mm</t>
   </si>
   <si>
     <t>C4</t>
@@ -166,16 +166,16 @@
     <t>CAP-SMD_L3.2-W1.6</t>
   </si>
   <si>
-    <t>65mil</t>
-  </si>
-  <si>
-    <t>-1014.9mil</t>
-  </si>
-  <si>
-    <t>-1015mil</t>
-  </si>
-  <si>
-    <t>-1068.1mil</t>
+    <t>1.651mm</t>
+  </si>
+  <si>
+    <t>-25.78mm</t>
+  </si>
+  <si>
+    <t>-25.781mm</t>
+  </si>
+  <si>
+    <t>-27.13mm</t>
   </si>
   <si>
     <t>B</t>
@@ -184,10 +184,13 @@
     <t>C5</t>
   </si>
   <si>
-    <t>-850mil</t>
-  </si>
-  <si>
-    <t>-796.9mil</t>
+    <t>-21.591mm</t>
+  </si>
+  <si>
+    <t>-21.59mm</t>
+  </si>
+  <si>
+    <t>-20.241mm</t>
   </si>
   <si>
     <t>U4</t>
@@ -199,16 +202,19 @@
     <t>SOT-223-4_L6.5-W3.5-P2.30-LS7.0-BR_1</t>
   </si>
   <si>
-    <t>255mil</t>
-  </si>
-  <si>
-    <t>-930mil</t>
-  </si>
-  <si>
-    <t>345.5mil</t>
-  </si>
-  <si>
-    <t>-1041.6mil</t>
+    <t>6.476mm</t>
+  </si>
+  <si>
+    <t>-23.622mm</t>
+  </si>
+  <si>
+    <t>6.477mm</t>
+  </si>
+  <si>
+    <t>8.776mm</t>
+  </si>
+  <si>
+    <t>-26.457mm</t>
   </si>
   <si>
     <t>L1</t>
@@ -220,43 +226,43 @@
     <t>ANT2051_1</t>
   </si>
   <si>
-    <t>345mil</t>
-  </si>
-  <si>
-    <t>-75mil</t>
-  </si>
-  <si>
-    <t>239.1mil</t>
+    <t>8.763mm</t>
+  </si>
+  <si>
+    <t>-1.905mm</t>
+  </si>
+  <si>
+    <t>6.073mm</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>505mil</t>
-  </si>
-  <si>
-    <t>-370mil</t>
-  </si>
-  <si>
-    <t>-342.4mil</t>
+    <t>12.827mm</t>
+  </si>
+  <si>
+    <t>-9.398mm</t>
+  </si>
+  <si>
+    <t>-8.697mm</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>430mil</t>
+    <t>10.922mm</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>590mil</t>
-  </si>
-  <si>
-    <t>-524.7mil</t>
-  </si>
-  <si>
-    <t>-554.4mil</t>
+    <t>14.986mm</t>
+  </si>
+  <si>
+    <t>-13.327mm</t>
+  </si>
+  <si>
+    <t>-14.082mm</t>
   </si>
   <si>
     <t>LED2</t>
@@ -268,10 +274,10 @@
     <t>LED0603-R-RD</t>
   </si>
   <si>
-    <t>-660mil</t>
-  </si>
-  <si>
-    <t>-626.5mil</t>
+    <t>-16.764mm</t>
+  </si>
+  <si>
+    <t>-15.913mm</t>
   </si>
   <si>
     <t>LED1</t>
@@ -283,34 +289,31 @@
     <t>LED-SMD_4P-L3.2-W2.7-TL_HL-AF-3528S39FU70GH20_1</t>
   </si>
   <si>
-    <t>580mil</t>
-  </si>
-  <si>
-    <t>-735mil</t>
-  </si>
-  <si>
-    <t>523.8mil</t>
-  </si>
-  <si>
-    <t>-705.5mil</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>M_2.54_2*5 双面排针</t>
-  </si>
-  <si>
-    <t>2*5 双面 排针_2</t>
-  </si>
-  <si>
-    <t>350mil</t>
-  </si>
-  <si>
-    <t>-1205mil</t>
-  </si>
-  <si>
-    <t>150mil</t>
+    <t>14.732mm</t>
+  </si>
+  <si>
+    <t>-18.669mm</t>
+  </si>
+  <si>
+    <t>13.305mm</t>
+  </si>
+  <si>
+    <t>-17.92mm</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>双面2.54排针_1</t>
+  </si>
+  <si>
+    <t>8.89mm</t>
+  </si>
+  <si>
+    <t>-30.607mm</t>
+  </si>
+  <si>
+    <t>5.08mm</t>
   </si>
 </sst>
 </file>
@@ -1096,13 +1099,13 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -1116,31 +1119,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>55</v>
@@ -1154,31 +1157,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1201,22 +1204,22 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1239,22 +1242,22 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s">
-        <v>75</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1277,22 +1280,22 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
         <v>55</v>
@@ -1306,31 +1309,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -1344,31 +1347,31 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1382,31 +1385,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
         <v>99</v>
-      </c>
-      <c r="I19" t="s">
-        <v>98</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
